--- a/biology/Botanique/Pherosphaera/Pherosphaera.xlsx
+++ b/biology/Botanique/Pherosphaera/Pherosphaera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pherosphaera est un genre de plantes de la famille des Podocarpaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (6 août 2018)[2], Catalogue of Life                                   (6 août 2018)[3], GRIN            (6 août 2018)[4], World Checklist of Selected Plant Families (WCSP)  (6 août 2018)[5], NCBI  (6 août 2018)[6], The Plant List            (6 août 2018)[7] et Tropicos                                           (6 août 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (6 août 2018), Catalogue of Life                                   (6 août 2018), GRIN            (6 août 2018), World Checklist of Selected Plant Families (WCSP)  (6 août 2018), NCBI  (6 août 2018), The Plant List            (6 août 2018) et Tropicos                                           (6 août 2018) :
 Pherosphaera fitzgeraldii (F.Muell.) Hook.f. (1882)
 Pherosphaera hookeriana W.Archer bis (1850)</t>
         </is>
